--- a/biology/Médecine/1280_en_santé_et_médecine/1280_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1280_en_santé_et_médecine/1280_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1280_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1280_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1280 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1280_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1280_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'hôpital de Saint-Pons, dans le Languedoc, est mentionné dans une charte des libertés et franchises de la ville[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'hôpital de Saint-Pons, dans le Languedoc, est mentionné dans une charte des libertés et franchises de la ville.
 Vers 1280
-Guillaume de La Roue, évêque du Puy, fonde trois léproseries, au Chambon, à Yssingeaux et à Monistrol, dans le Velay[2].
-Fondation à Schletstadt, ville d'Empire, d'une « maison des pauvres et des malades » (pauperum et infirmorum hospitalis[3],[4]).</t>
+Guillaume de La Roue, évêque du Puy, fonde trois léproseries, au Chambon, à Yssingeaux et à Monistrol, dans le Velay.
+Fondation à Schletstadt, ville d'Empire, d'une « maison des pauvres et des malades » (pauperum et infirmorum hospitalis,).</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1280_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1280_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,17 +558,19 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Isaac ben Moïse, surnommé Ishtori Ha-Farhi (mort en 1355), géographe et médecin tossafiste, élève de l'astronome, médecin et traducteur Jacob ben Makhir[5].
-Vers 1270-1280 : Muhammad al-Shafra (es) (mort en 1360), chirurgien arabe, né en Espagne, probablement à Crevillente[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Isaac ben Moïse, surnommé Ishtori Ha-Farhi (mort en 1355), géographe et médecin tossafiste, élève de l'astronome, médecin et traducteur Jacob ben Makhir.
+Vers 1270-1280 : Muhammad al-Shafra (es) (mort en 1360), chirurgien arabe, né en Espagne, probablement à Crevillente,.
 Vers 1280 :
-Dino del Garbo (mort en 1327), médecin italien, professeur à Bologne, Padoue, Florence et Sienne, élève de Thaddée de Florence, fils du chirurgien Bono del Garbo et père du médecin Thomas del Garbo[8].
-Matteo Silvatico (mort au plus tôt en 1342), médecin et botaniste italien[9].
-John de Bassolis (mort en 1347), théologien, disciple de Dun Scot, et peut-être docteur en médecine de l'université de Paris[10],[11].
-Guy de Vigevano (mort au plus tôt en 1349), médecin, anatomiste et ingénieur militaire italien[12].
-Jean de Gaddesden (mort en 1361), médecin anglais, auteur de la Rosa medicinae, traité de médecine achevé en 1307[13].
-Vers 1280-1290 : Gentile da Foligno (mort en 1348), médecin et philosophe italien[14].</t>
+Dino del Garbo (mort en 1327), médecin italien, professeur à Bologne, Padoue, Florence et Sienne, élève de Thaddée de Florence, fils du chirurgien Bono del Garbo et père du médecin Thomas del Garbo.
+Matteo Silvatico (mort au plus tôt en 1342), médecin et botaniste italien.
+John de Bassolis (mort en 1347), théologien, disciple de Dun Scot, et peut-être docteur en médecine de l'université de Paris,.
+Guy de Vigevano (mort au plus tôt en 1349), médecin, anatomiste et ingénieur militaire italien.
+Jean de Gaddesden (mort en 1361), médecin anglais, auteur de la Rosa medicinae, traité de médecine achevé en 1307.
+Vers 1280-1290 : Gentile da Foligno (mort en 1348), médecin et philosophe italien.</t>
         </is>
       </c>
     </row>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1280_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1280_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +598,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15 novembre : Albert le Grand (né vers 1200), frère dominicain, médecin, philosophe, théologien, naturaliste et chimiste allemand[15].
-Chen Wenzhong (né en 1211), « le plus célèbre pédiatre chinois de son temps »,  auteur en 1253 du  Xiao Er Bing Yuan Fang Lun, traité sur « les causes et le traitement des maladies infantiles[16],[17] ».
-Après 1275 (probablement entre 1280 et 1285) : Guillaume de Salicet (né en 1210), moine dominicain  et médecin lombard[18].
-Après 1280 : Nicolas Myrepsos[19] (né à une date inconnue), médecin byzantin, auteur de l'Antidotarium Nicolai, traité de pharmacie qui fera autorité jusqu'à la fin du XVIIe siècle[20].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 novembre : Albert le Grand (né vers 1200), frère dominicain, médecin, philosophe, théologien, naturaliste et chimiste allemand.
+Chen Wenzhong (né en 1211), « le plus célèbre pédiatre chinois de son temps »,  auteur en 1253 du  Xiao Er Bing Yuan Fang Lun, traité sur « les causes et le traitement des maladies infantiles, ».
+Après 1275 (probablement entre 1280 et 1285) : Guillaume de Salicet (né en 1210), moine dominicain  et médecin lombard.
+Après 1280 : Nicolas Myrepsos (né à une date inconnue), médecin byzantin, auteur de l'Antidotarium Nicolai, traité de pharmacie qui fera autorité jusqu'à la fin du XVIIe siècle.</t>
         </is>
       </c>
     </row>
